--- a/S3_VMU/Master_Model_3DOF/Raw_Data/PER25_OU28.xlsx
+++ b/S3_VMU/Master_Model_3DOF/Raw_Data/PER25_OU28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\droli\Documents\GitHub\SimscapeModel\S3_VMU\Master_Model_3DOF\Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CE58B38-6730-47AA-8E7C-6D8D7AFADA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CEC93D-41F3-4221-9E2D-3BB6406B9455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17256" windowHeight="8880" xr2:uid="{5A781C66-D947-4B8F-B7F2-54E04AA794DF}"/>
+    <workbookView minimized="1" xWindow="3696" yWindow="3696" windowWidth="17256" windowHeight="8880" xr2:uid="{5A781C66-D947-4B8F-B7F2-54E04AA794DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,6 +115,3577 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v> Main</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> InverterA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> INVA_CRIT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> AMK_ActualTorque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="298"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>198.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>206.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>212.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>210.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>208.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>207.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>209.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>210.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>209.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>205.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>205.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>206.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>214.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>217.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>186.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>209.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>211.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>211.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>209.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>205.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>200.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>197.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>170.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>149.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>47.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>86.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>95.7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>102.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>110.1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>118.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>122.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>126.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>120.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>126.1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>127.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>127.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>126.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>130.1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>126.9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>126.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>129.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>130.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>75.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>76.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>77.7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>76.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>76.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>77.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>80.3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>78.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>95.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96.4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>95.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>97.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>100.9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>94.1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>47.7</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>50.4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>43.3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>46.3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>47.1</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>46.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>49.3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>74.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>75.7</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>74.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>78.7</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>78.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>81.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>79.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>80.7</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>77.7</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>79.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>78.8</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>80.3</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>84.6</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>76.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>66.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>77.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>77.7</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>77.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>76.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>77.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>78.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>48.1</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AEE5-40E9-9513-BF66D45F480B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="900716031"/>
+        <c:axId val="900732831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="900716031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="900732831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="900732831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="900716031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v> Main</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> InverterA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> INVA_CRIT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> AMK_DisplayOverloadInverter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$302</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="298"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5045-4B57-8547-ECA8AD955C8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="900730431"/>
+        <c:axId val="900725151"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="900730431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="900725151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="900725151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="900730431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2FA1CC-941F-A322-64AF-B23336CDEC71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED47854F-06C5-8BC3-E408-14CA937D6461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E66E9F-A1AF-415A-BB4A-1DCEE1BF3AFD}">
   <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="C294" sqref="C294"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3766,5 +7337,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>